--- a/input.xlsx
+++ b/input.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ExcelTenderCalculate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88F229A-1BBC-40F7-A355-DC498F9541C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6B8B74-F52F-44BB-88FA-56DC86B7718A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{E8701D74-1528-4939-AC9D-385000DD3A42}"/>
+    <workbookView xWindow="1130" yWindow="1290" windowWidth="23060" windowHeight="12080" xr2:uid="{E8701D74-1528-4939-AC9D-385000DD3A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029" concurrentManualCount="32"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>投标价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,12 +126,24 @@
     <t>是否固定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,11 +178,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
@@ -480,7 +485,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="A16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="A16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -676,7 +681,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="A7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="A7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
@@ -736,7 +741,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="E5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="E5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
@@ -744,7 +749,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="E7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="E7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
@@ -752,7 +757,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="E9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="E9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
@@ -764,7 +769,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="A9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="A9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,7 +777,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="E13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="E13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
@@ -784,7 +789,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="E16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="E16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
@@ -808,7 +813,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="A10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="A10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
@@ -858,15 +863,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>401637</xdr:colOff>
+          <xdr:colOff>412750</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>58366</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -915,7 +920,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -941,14 +946,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
@@ -957,7 +967,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79417F4D-EC8A-421F-875F-5D0C2E75877C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -996,7 +1006,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1016,20 +1026,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
@@ -1038,7 +1053,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F59907-9684-4699-B3BD-A5B49B255F1D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1077,7 +1092,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1097,20 +1112,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
@@ -1119,7 +1139,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB80752-58A0-4C8D-A2AC-153F2D077265}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1158,7 +1178,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1178,20 +1198,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
@@ -1200,7 +1225,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD57B4B-66D8-4445-B695-9041EC78126F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1239,7 +1264,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1259,20 +1284,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
@@ -1281,7 +1311,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E892878D-0914-4A9C-B1F3-C8D25796EFC9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1320,7 +1350,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1340,20 +1370,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
@@ -1362,7 +1397,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2529A692-106B-4428-931C-4B7B482848B6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1401,7 +1436,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1421,20 +1456,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
@@ -1443,7 +1483,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055A1DDF-EEAD-4A3D-BAC3-9DE34EAB6585}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1482,7 +1522,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1502,20 +1542,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
@@ -1524,7 +1569,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070A6B8C-A0CD-4959-94D1-20BB22410630}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1563,7 +1608,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1583,20 +1628,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
@@ -1605,7 +1655,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC448A5-91A5-4CEA-AA29-E9DCC81107BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1644,7 +1694,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1664,20 +1714,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
@@ -1686,7 +1741,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEAAD9C5-93D3-4009-909B-E216A1429187}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1725,7 +1780,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1745,20 +1800,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
@@ -1767,7 +1827,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A357E3-8C2A-4BA2-A5FB-1DD80516FA2C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1806,7 +1866,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1826,20 +1886,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
@@ -1848,7 +1913,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C95C4F-AD67-433C-8A1B-7BFFFB983ED0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1887,7 +1952,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1907,20 +1972,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
@@ -1929,7 +1999,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4FDCDA-94CE-42CE-8A90-8B6AEF6665C7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1968,7 +2038,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1988,20 +2058,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
@@ -2010,7 +2085,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC5DBFBD-357B-40D7-A926-C8928F7853C5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2049,7 +2124,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2069,20 +2144,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
@@ -2091,7 +2171,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77952A5-30EC-426E-A3CA-0DEED0019F99}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2130,7 +2210,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2150,20 +2230,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
@@ -2172,7 +2257,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3DECEA2-EF88-44F6-9F53-DD77E6138558}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2211,7 +2296,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2231,20 +2316,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
@@ -2253,7 +2343,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59895143-C656-4B78-93F4-A4A0C4A47909}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2292,7 +2382,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2312,20 +2402,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
@@ -2334,7 +2429,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0707AC4-0E7E-440B-B17A-17E969C7F2CE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2373,7 +2468,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2393,20 +2488,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
@@ -2415,7 +2515,7 @@
                   <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129EEC61-77C9-4CFA-9187-88502C93178A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2454,7 +2554,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2474,20 +2574,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
@@ -2496,7 +2601,7 @@
                   <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11DF019E-DD8C-487D-B162-7DF933EA7739}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2535,7 +2640,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2555,20 +2660,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
@@ -2577,7 +2687,7 @@
                   <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74840928-E836-4B42-B841-343B82F932A5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2616,7 +2726,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2636,20 +2746,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
@@ -2658,7 +2773,7 @@
                   <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F022146-6184-4852-9AD9-B52C5A4254EB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2697,7 +2812,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2717,20 +2832,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
@@ -2739,7 +2859,7 @@
                   <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D2EE31-E65F-4838-8C1B-0D2353FA4ED2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2778,7 +2898,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2798,20 +2918,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
@@ -2820,7 +2945,7 @@
                   <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4141EF-39DF-4B53-96C2-D32419AE96D7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2859,7 +2984,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2879,20 +3004,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
@@ -2901,7 +3031,7 @@
                   <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CF02A53-6FDB-4C8E-A4B7-787936517FC6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2940,7 +3070,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2960,20 +3090,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
@@ -2982,7 +3117,7 @@
                   <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0D4297-6870-47E5-8FBC-E006134857ED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3021,7 +3156,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3041,20 +3176,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
@@ -3063,7 +3203,7 @@
                   <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F406AFE-0E55-4172-96BF-30696CB3A204}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3102,7 +3242,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3122,20 +3262,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
@@ -3144,7 +3289,7 @@
                   <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBE3EE8-86D4-44E9-A70A-236557ED0080}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3183,7 +3328,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3203,20 +3348,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
@@ -3225,7 +3375,7 @@
                   <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70561F8-FF89-4BB6-A95C-7E57F6D1603D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3264,7 +3414,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3284,20 +3434,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
@@ -3306,7 +3461,7 @@
                   <a14:compatExt spid="_x0000_s1071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4325DF72-E2E2-4EE4-BD7B-1B35A52DA571}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3345,7 +3500,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3365,20 +3520,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
@@ -3387,7 +3547,7 @@
                   <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3DDD1C-54C9-45A6-82C1-FAC870CF2ED3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3426,7 +3586,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3446,20 +3606,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
@@ -3468,7 +3633,7 @@
                   <a14:compatExt spid="_x0000_s1073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F43703-1226-4490-8087-A34458A03F4E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3507,7 +3672,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3527,20 +3692,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
@@ -3549,7 +3719,7 @@
                   <a14:compatExt spid="_x0000_s1074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C642194-05D3-41CB-919B-74E816CDE6D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3588,7 +3758,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3608,20 +3778,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1075" name="Check Box 51" hidden="1">
@@ -3630,7 +3805,7 @@
                   <a14:compatExt spid="_x0000_s1075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC209565-E4AF-4AB0-9BC7-3B58C12F6561}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3669,7 +3844,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3689,20 +3864,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1076" name="Check Box 52" hidden="1">
@@ -3711,7 +3891,7 @@
                   <a14:compatExt spid="_x0000_s1076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250A1D54-12E7-4619-B622-EEE2F7EAB7AF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3750,7 +3930,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3770,20 +3950,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1077" name="Check Box 53" hidden="1">
@@ -3792,7 +3977,7 @@
                   <a14:compatExt spid="_x0000_s1077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0468BE5E-BF36-47E4-91DD-3E04FE51E49D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3831,7 +4016,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3851,20 +4036,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1078" name="Check Box 54" hidden="1">
@@ -3873,7 +4063,7 @@
                   <a14:compatExt spid="_x0000_s1078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8ABD0E-5AA4-4230-9F6F-1B32899C1A8E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3912,7 +4102,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3932,20 +4122,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
@@ -3954,7 +4149,7 @@
                   <a14:compatExt spid="_x0000_s1079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D749FBB-D8DB-4F39-AC9E-47A9EF68324C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3993,7 +4188,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4013,20 +4208,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
@@ -4035,7 +4235,7 @@
                   <a14:compatExt spid="_x0000_s1080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B241B6D4-828D-487F-AD75-CE47FBCB1B46}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4074,7 +4274,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4094,20 +4294,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
@@ -4116,7 +4321,7 @@
                   <a14:compatExt spid="_x0000_s1081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A34973C8-F256-43C8-8679-1A2515D1E4D4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4155,7 +4360,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4175,20 +4380,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
@@ -4197,7 +4407,7 @@
                   <a14:compatExt spid="_x0000_s1082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B3BA20-59D3-43E9-B440-AD8D6623C049}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4236,7 +4446,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4256,20 +4466,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
@@ -4278,7 +4493,7 @@
                   <a14:compatExt spid="_x0000_s1083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175992B4-1EAC-44D3-A0D1-1D0EA92E6523}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4317,7 +4532,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4337,20 +4552,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
@@ -4359,7 +4579,7 @@
                   <a14:compatExt spid="_x0000_s1084"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F2E5E3-91F1-41DB-8BEA-735A68EF12AA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4398,7 +4618,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4418,20 +4638,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
@@ -4440,7 +4665,7 @@
                   <a14:compatExt spid="_x0000_s1085"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E869FC-6FF0-481A-B458-EDB2CB266BBC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4479,7 +4704,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4499,20 +4724,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1086" name="Check Box 62" hidden="1">
@@ -4521,7 +4751,7 @@
                   <a14:compatExt spid="_x0000_s1086"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB62115-DE2B-4656-BE8C-AFF7DACF25D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4560,7 +4790,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4580,20 +4810,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1087" name="Check Box 63" hidden="1">
@@ -4602,7 +4837,7 @@
                   <a14:compatExt spid="_x0000_s1087"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D4A3EAE-382A-40A9-9D60-01FA51D7D861}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4641,7 +4876,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4661,20 +4896,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1088" name="Check Box 64" hidden="1">
@@ -4683,7 +4923,7 @@
                   <a14:compatExt spid="_x0000_s1088"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0AD52D-2A76-426B-A2A6-2BEB2103323B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4722,7 +4962,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4742,20 +4982,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
@@ -4764,7 +5009,7 @@
                   <a14:compatExt spid="_x0000_s1089"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E4B50A-16AC-40FA-BC42-1357A98D694F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4803,7 +5048,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4823,20 +5068,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
@@ -4845,7 +5095,7 @@
                   <a14:compatExt spid="_x0000_s1090"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFAF2E62-9254-4A7A-B01D-47E8D24139D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4884,7 +5134,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4904,20 +5154,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
@@ -4926,7 +5181,7 @@
                   <a14:compatExt spid="_x0000_s1091"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99D26068-E1D2-4FDA-93F4-EB3D11270D1E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4965,7 +5220,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4985,20 +5240,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
@@ -5007,7 +5267,7 @@
                   <a14:compatExt spid="_x0000_s1092"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD98BA65-F3E1-4FBD-8C02-DC468B924430}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5046,7 +5306,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5066,20 +5326,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
@@ -5088,7 +5353,7 @@
                   <a14:compatExt spid="_x0000_s1093"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A92251-1F07-4C45-9613-2B55A68A2BCA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5127,7 +5392,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5147,20 +5412,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
@@ -5169,7 +5439,7 @@
                   <a14:compatExt spid="_x0000_s1094"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD17615-5F81-4382-A681-D2F6F6AB4657}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5208,7 +5478,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5228,20 +5498,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
@@ -5250,7 +5525,7 @@
                   <a14:compatExt spid="_x0000_s1095"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8853A44-56B7-40DB-B811-988ECBF59304}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5289,7 +5564,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5309,20 +5584,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
@@ -5331,7 +5611,7 @@
                   <a14:compatExt spid="_x0000_s1096"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF25FD73-4D4A-4532-A3DD-FAC4E662F051}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5370,7 +5650,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5390,20 +5670,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
@@ -5412,7 +5697,7 @@
                   <a14:compatExt spid="_x0000_s1097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9163F77-175A-4F5F-8B2A-E927F41D4A79}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5451,7 +5736,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5471,20 +5756,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
@@ -5493,7 +5783,7 @@
                   <a14:compatExt spid="_x0000_s1098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E89E6670-4D26-46E2-BDE0-339D32A39215}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5532,7 +5822,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5552,20 +5842,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
@@ -5574,7 +5869,7 @@
                   <a14:compatExt spid="_x0000_s1099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FE72D7-509F-49BC-9481-67A984C26FCA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5613,7 +5908,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5633,20 +5928,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1100" name="Check Box 76" hidden="1">
@@ -5655,7 +5955,7 @@
                   <a14:compatExt spid="_x0000_s1100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A09D3CF4-1645-49EC-B655-026C8CED96CA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5694,7 +5994,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5714,20 +6014,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1101" name="Check Box 77" hidden="1">
@@ -5736,7 +6041,7 @@
                   <a14:compatExt spid="_x0000_s1101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A07003-FFB2-4B08-9548-0E9E657A94B1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5775,7 +6080,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5795,20 +6100,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>63</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
@@ -5817,7 +6127,7 @@
                   <a14:compatExt spid="_x0000_s1102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01ECADEB-5865-4789-82AA-C3863C3B8EA3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5856,7 +6166,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5876,20 +6186,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
@@ -5898,7 +6213,7 @@
                   <a14:compatExt spid="_x0000_s1103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B14DBC-96AB-4933-A030-E47126E21ED8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5937,7 +6252,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5957,20 +6272,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>65</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
@@ -5979,7 +6299,7 @@
                   <a14:compatExt spid="_x0000_s1104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C2A6AB-3BCC-4780-A501-6F8E728E0A0E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6018,7 +6338,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6038,20 +6358,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1105" name="Check Box 81" hidden="1">
@@ -6060,7 +6385,7 @@
                   <a14:compatExt spid="_x0000_s1105"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEAA909C-79D3-4E6A-AF56-8A119EE26B42}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6099,7 +6424,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6119,20 +6444,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>65</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1106" name="Check Box 82" hidden="1">
@@ -6141,7 +6471,7 @@
                   <a14:compatExt spid="_x0000_s1106"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6B7BD7-2126-485C-8A5E-D4216FEEEB01}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6180,7 +6510,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6200,20 +6530,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1107" name="Check Box 83" hidden="1">
@@ -6222,7 +6557,7 @@
                   <a14:compatExt spid="_x0000_s1107"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED974308-1DA0-44F6-B0A2-61E5D4809E4F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6261,7 +6596,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6281,20 +6616,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1108" name="Check Box 84" hidden="1">
@@ -6303,7 +6643,7 @@
                   <a14:compatExt spid="_x0000_s1108"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E9BB6D0-B883-4C28-9AFD-7AA70328A1B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6342,7 +6682,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6362,20 +6702,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>75247</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>141923</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="263525"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1109" name="Check Box 85" hidden="1">
@@ -6384,7 +6729,7 @@
                   <a14:compatExt spid="_x0000_s1109"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD5D1467-0951-4FFE-8981-7EAB8F3ED19C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6423,7 +6768,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6443,7 +6788,7 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -6452,15 +6797,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>442177</xdr:colOff>
+          <xdr:colOff>444500</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>53371</xdr:rowOff>
+          <xdr:rowOff>44450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6509,7 +6854,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6535,14 +6880,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1111" name="Check Box 87" hidden="1">
@@ -6551,7 +6901,7 @@
                   <a14:compatExt spid="_x0000_s1111"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261372E4-B831-456A-8EDC-042586A14515}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6590,7 +6940,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6610,20 +6960,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1112" name="Check Box 88" hidden="1">
@@ -6632,7 +6987,7 @@
                   <a14:compatExt spid="_x0000_s1112"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1941E331-BE4A-4343-BEFE-60E1467F38F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6671,7 +7026,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6691,20 +7046,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1113" name="Check Box 89" hidden="1">
@@ -6713,7 +7073,7 @@
                   <a14:compatExt spid="_x0000_s1113"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F2EB52-CE06-41C6-90A6-ADFEB3C8C74A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6752,7 +7112,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6772,20 +7132,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1114" name="Check Box 90" hidden="1">
@@ -6794,7 +7159,7 @@
                   <a14:compatExt spid="_x0000_s1114"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA033848-76F2-4D6E-84BF-13EB7A4DEA12}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6833,7 +7198,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6853,20 +7218,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1115" name="Check Box 91" hidden="1">
@@ -6875,7 +7245,7 @@
                   <a14:compatExt spid="_x0000_s1115"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37735A65-B44C-4555-86B2-52CFA431C958}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6914,7 +7284,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6934,20 +7304,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1116" name="Check Box 92" hidden="1">
@@ -6956,7 +7331,7 @@
                   <a14:compatExt spid="_x0000_s1116"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1702045B-420A-4FB1-8F45-3B5AF43E3142}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6995,7 +7370,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7015,20 +7390,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1117" name="Check Box 93" hidden="1">
@@ -7037,7 +7417,7 @@
                   <a14:compatExt spid="_x0000_s1117"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57EAF92B-5324-4144-B798-85518C83DD5A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7076,7 +7456,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7096,20 +7476,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1118" name="Check Box 94" hidden="1">
@@ -7118,7 +7503,7 @@
                   <a14:compatExt spid="_x0000_s1118"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C39B458E-BF08-45DC-8C7C-110B179653C9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7157,7 +7542,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7177,20 +7562,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1119" name="Check Box 95" hidden="1">
@@ -7199,7 +7589,7 @@
                   <a14:compatExt spid="_x0000_s1119"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300D25FA-5590-4789-8100-4B74418716B5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7238,7 +7628,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7258,20 +7648,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1120" name="Check Box 96" hidden="1">
@@ -7280,7 +7675,7 @@
                   <a14:compatExt spid="_x0000_s1120"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70AEA14-57FC-49DD-9C59-46A6200B82EA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7319,7 +7714,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7339,20 +7734,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1121" name="Check Box 97" hidden="1">
@@ -7361,7 +7761,7 @@
                   <a14:compatExt spid="_x0000_s1121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7792E049-B8E2-4EC3-A6B9-80DA6ABF31B8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7400,7 +7800,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7420,20 +7820,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1122" name="Check Box 98" hidden="1">
@@ -7442,7 +7847,7 @@
                   <a14:compatExt spid="_x0000_s1122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57C4962-D850-4419-A1B7-FD0D501573F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7481,7 +7886,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7501,20 +7906,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1123" name="Check Box 99" hidden="1">
@@ -7523,7 +7933,7 @@
                   <a14:compatExt spid="_x0000_s1123"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E9E0165-17E3-4A68-990C-55A0D6D315E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7562,7 +7972,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7582,20 +7992,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1124" name="Check Box 100" hidden="1">
@@ -7604,7 +8019,7 @@
                   <a14:compatExt spid="_x0000_s1124"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D369F9-6106-4227-9042-57A6C52BD7E3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7643,7 +8058,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7663,20 +8078,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1125" name="Check Box 101" hidden="1">
@@ -7685,7 +8105,7 @@
                   <a14:compatExt spid="_x0000_s1125"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE2A9B5C-4977-4098-82E7-53E9E5047A46}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7724,7 +8144,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7744,20 +8164,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1126" name="Check Box 102" hidden="1">
@@ -7766,7 +8191,7 @@
                   <a14:compatExt spid="_x0000_s1126"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DD46D7-8E3C-4577-86B9-05F1BD8124E1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7805,7 +8230,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7825,20 +8250,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1127" name="Check Box 103" hidden="1">
@@ -7847,7 +8277,7 @@
                   <a14:compatExt spid="_x0000_s1127"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4BBDB0-E357-4CC1-B52D-24674F62E129}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7886,7 +8316,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7906,20 +8336,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1128" name="Check Box 104" hidden="1">
@@ -7928,7 +8363,7 @@
                   <a14:compatExt spid="_x0000_s1128"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE74BEB0-E5BE-41B0-A816-3BC5DF1D5CE1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7967,7 +8402,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7987,20 +8422,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1129" name="Check Box 105" hidden="1">
@@ -8009,7 +8449,7 @@
                   <a14:compatExt spid="_x0000_s1129"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7606813C-0F45-415B-A26E-D3687FEDEBBA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8048,7 +8488,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8068,20 +8508,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1130" name="Check Box 106" hidden="1">
@@ -8090,7 +8535,7 @@
                   <a14:compatExt spid="_x0000_s1130"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F778140-CC56-4DE1-A2B4-56C5B62522B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8129,7 +8574,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8149,20 +8594,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1131" name="Check Box 107" hidden="1">
@@ -8171,7 +8621,7 @@
                   <a14:compatExt spid="_x0000_s1131"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177A7857-64D9-49E1-9E66-9534789FC803}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8210,7 +8660,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8230,20 +8680,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1132" name="Check Box 108" hidden="1">
@@ -8252,7 +8707,7 @@
                   <a14:compatExt spid="_x0000_s1132"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9085135A-3479-4687-896B-DD3BBAED74B8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8291,7 +8746,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8311,20 +8766,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1133" name="Check Box 109" hidden="1">
@@ -8333,7 +8793,7 @@
                   <a14:compatExt spid="_x0000_s1133"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3DDC03F-8E9B-42A0-A531-2FC4EB68CD39}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8372,7 +8832,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8392,20 +8852,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1134" name="Check Box 110" hidden="1">
@@ -8414,7 +8879,7 @@
                   <a14:compatExt spid="_x0000_s1134"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE404DD-D641-449B-8024-9144990B5868}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8453,7 +8918,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8473,20 +8938,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1135" name="Check Box 111" hidden="1">
@@ -8495,7 +8965,7 @@
                   <a14:compatExt spid="_x0000_s1135"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB7BAC8-C29B-4265-989B-41704CA6D38B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8534,7 +9004,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8554,20 +9024,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1136" name="Check Box 112" hidden="1">
@@ -8576,7 +9051,7 @@
                   <a14:compatExt spid="_x0000_s1136"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22671435-BB83-44C0-9DA2-BFCAFB3A1437}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8615,7 +9090,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8635,20 +9110,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1137" name="Check Box 113" hidden="1">
@@ -8657,7 +9137,7 @@
                   <a14:compatExt spid="_x0000_s1137"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A67EC4-4913-4E21-8DD5-3DE1EDDD2C39}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8696,7 +9176,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8716,20 +9196,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1138" name="Check Box 114" hidden="1">
@@ -8738,7 +9223,7 @@
                   <a14:compatExt spid="_x0000_s1138"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF41716-C3A2-4B5D-9812-C1D905250503}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8777,7 +9262,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8797,20 +9282,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1139" name="Check Box 115" hidden="1">
@@ -8819,7 +9309,7 @@
                   <a14:compatExt spid="_x0000_s1139"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{995AD186-1BC2-43E8-BEBA-45709B16873C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8858,7 +9348,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8878,20 +9368,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1140" name="Check Box 116" hidden="1">
@@ -8900,7 +9395,7 @@
                   <a14:compatExt spid="_x0000_s1140"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B5D60E-99CC-400F-9FAD-C365AD179FE0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8939,7 +9434,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8959,20 +9454,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1141" name="Check Box 117" hidden="1">
@@ -8981,7 +9481,7 @@
                   <a14:compatExt spid="_x0000_s1141"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D2E63F-E0E2-4C9E-99B0-30A95E1B6C93}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9020,7 +9520,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9040,20 +9540,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1142" name="Check Box 118" hidden="1">
@@ -9062,7 +9567,7 @@
                   <a14:compatExt spid="_x0000_s1142"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73DF184D-B8C7-4BAB-AD28-E56051F874DB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9101,7 +9606,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9121,20 +9626,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1143" name="Check Box 119" hidden="1">
@@ -9143,7 +9653,7 @@
                   <a14:compatExt spid="_x0000_s1143"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D4A040-CAB0-4AD7-993C-9EEFDF769258}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9182,7 +9692,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9202,20 +9712,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1144" name="Check Box 120" hidden="1">
@@ -9224,7 +9739,7 @@
                   <a14:compatExt spid="_x0000_s1144"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE16CC5-67C7-4A60-B7CF-63EB1BFE46F5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9263,7 +9778,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9283,20 +9798,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1145" name="Check Box 121" hidden="1">
@@ -9305,7 +9825,7 @@
                   <a14:compatExt spid="_x0000_s1145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F038ACF-C1DC-487A-A037-C68B388AC1A7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9344,7 +9864,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9364,20 +9884,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1146" name="Check Box 122" hidden="1">
@@ -9386,7 +9911,7 @@
                   <a14:compatExt spid="_x0000_s1146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC47123A-3C80-4553-A9E5-988AE2373D00}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9425,7 +9950,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9445,20 +9970,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1147" name="Check Box 123" hidden="1">
@@ -9467,7 +9997,7 @@
                   <a14:compatExt spid="_x0000_s1147"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C317D620-CE17-415D-BD96-61816C02CC8B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9506,7 +10036,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9526,20 +10056,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1148" name="Check Box 124" hidden="1">
@@ -9548,7 +10083,7 @@
                   <a14:compatExt spid="_x0000_s1148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8E5238-AFCD-4F66-841D-355EB33996F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9587,7 +10122,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9607,20 +10142,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1149" name="Check Box 125" hidden="1">
@@ -9629,7 +10169,7 @@
                   <a14:compatExt spid="_x0000_s1149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3CDF502-9510-4829-87C5-C33E3856CC8D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9668,7 +10208,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9688,20 +10228,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1150" name="Check Box 126" hidden="1">
@@ -9710,7 +10255,7 @@
                   <a14:compatExt spid="_x0000_s1150"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B846B64C-BCD7-416F-B5AE-D63F6D8C6962}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9749,7 +10294,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9769,20 +10314,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1151" name="Check Box 127" hidden="1">
@@ -9791,7 +10341,7 @@
                   <a14:compatExt spid="_x0000_s1151"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE695EE-3977-4512-8FFA-62791E4C62B5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9830,7 +10380,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9850,20 +10400,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1152" name="Check Box 128" hidden="1">
@@ -9872,7 +10427,7 @@
                   <a14:compatExt spid="_x0000_s1152"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1888DD2E-2C97-4980-8241-B1AB876280BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9911,7 +10466,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9931,20 +10486,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1153" name="Check Box 129" hidden="1">
@@ -9953,7 +10513,7 @@
                   <a14:compatExt spid="_x0000_s1153"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5AC330-664F-45BB-8873-CA6AE22AF628}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9992,7 +10552,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10012,20 +10572,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1154" name="Check Box 130" hidden="1">
@@ -10034,7 +10599,7 @@
                   <a14:compatExt spid="_x0000_s1154"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA0EDAC-AC9D-4418-B9E6-E8DF5AA017AB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10073,7 +10638,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10093,20 +10658,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1155" name="Check Box 131" hidden="1">
@@ -10115,7 +10685,7 @@
                   <a14:compatExt spid="_x0000_s1155"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A48CDD87-F8D2-4657-9177-DA6ECDBE352C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10154,7 +10724,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10174,20 +10744,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1156" name="Check Box 132" hidden="1">
@@ -10196,7 +10771,7 @@
                   <a14:compatExt spid="_x0000_s1156"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78159968-9B6D-4568-AD88-3153676C098F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10235,7 +10810,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10255,20 +10830,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1157" name="Check Box 133" hidden="1">
@@ -10277,7 +10857,7 @@
                   <a14:compatExt spid="_x0000_s1157"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F23C4D-51CF-495C-958B-68FEE1B0720F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10316,7 +10896,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10336,20 +10916,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1158" name="Check Box 134" hidden="1">
@@ -10358,7 +10943,7 @@
                   <a14:compatExt spid="_x0000_s1158"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E75B77-61DA-4352-9DE9-D3480192CDF7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10397,7 +10982,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10417,20 +11002,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1159" name="Check Box 135" hidden="1">
@@ -10439,7 +11029,7 @@
                   <a14:compatExt spid="_x0000_s1159"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071DF8F2-42C9-4774-A609-42DEEB20AEF5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10478,7 +11068,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10498,20 +11088,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1160" name="Check Box 136" hidden="1">
@@ -10520,7 +11115,7 @@
                   <a14:compatExt spid="_x0000_s1160"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA29E9C-120B-48C5-A332-673CBBA9E51B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10559,7 +11154,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10579,20 +11174,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1161" name="Check Box 137" hidden="1">
@@ -10601,7 +11201,7 @@
                   <a14:compatExt spid="_x0000_s1161"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0728655-68DD-44E5-A434-031927C5E560}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10640,7 +11240,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10660,20 +11260,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1162" name="Check Box 138" hidden="1">
@@ -10682,7 +11287,7 @@
                   <a14:compatExt spid="_x0000_s1162"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6DDF0B-E696-434F-9E3D-88F50AF1BF88}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10721,7 +11326,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10741,20 +11346,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1163" name="Check Box 139" hidden="1">
@@ -10763,7 +11373,7 @@
                   <a14:compatExt spid="_x0000_s1163"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC4AE4C-6F9C-4A57-898F-06257AD65586}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10802,7 +11412,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10822,20 +11432,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1164" name="Check Box 140" hidden="1">
@@ -10844,7 +11459,7 @@
                   <a14:compatExt spid="_x0000_s1164"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5049D73-E7A6-453F-AC83-1A585B797E22}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10883,7 +11498,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10903,20 +11518,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1165" name="Check Box 141" hidden="1">
@@ -10925,7 +11545,7 @@
                   <a14:compatExt spid="_x0000_s1165"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949B5D2D-A367-4D6A-AA65-B15C3494CF21}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10964,7 +11584,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10984,20 +11604,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1166" name="Check Box 142" hidden="1">
@@ -11006,7 +11631,7 @@
                   <a14:compatExt spid="_x0000_s1166"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8308B6-B1ED-4FBC-904E-8EB471897F7E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11045,7 +11670,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11065,20 +11690,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1167" name="Check Box 143" hidden="1">
@@ -11087,7 +11717,7 @@
                   <a14:compatExt spid="_x0000_s1167"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08836E03-20A0-4510-91E6-83F24F1D623D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11126,7 +11756,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11146,20 +11776,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1168" name="Check Box 144" hidden="1">
@@ -11168,7 +11803,7 @@
                   <a14:compatExt spid="_x0000_s1168"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D333713-BEE5-4E04-BE3D-FF8501B21B46}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11207,7 +11842,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11227,20 +11862,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1169" name="Check Box 145" hidden="1">
@@ -11249,7 +11889,7 @@
                   <a14:compatExt spid="_x0000_s1169"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0221EB-928B-46A7-B059-D396C2A66432}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11288,7 +11928,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11308,20 +11948,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1170" name="Check Box 146" hidden="1">
@@ -11330,7 +11975,7 @@
                   <a14:compatExt spid="_x0000_s1170"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99AF93C8-560E-4410-9846-29A83B3E903E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11369,7 +12014,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11389,20 +12034,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>63</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1171" name="Check Box 147" hidden="1">
@@ -11411,7 +12061,7 @@
                   <a14:compatExt spid="_x0000_s1171"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C7779C-9D85-4D7D-9CDA-A3E9843774D5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11450,7 +12100,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11470,20 +12120,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1172" name="Check Box 148" hidden="1">
@@ -11492,7 +12147,7 @@
                   <a14:compatExt spid="_x0000_s1172"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2468CD3-EDF5-4A6B-8D30-D5E7C79E7DB0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11531,7 +12186,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11551,20 +12206,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>65</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1173" name="Check Box 149" hidden="1">
@@ -11573,7 +12233,7 @@
                   <a14:compatExt spid="_x0000_s1173"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB4886D-4088-4AB9-8C44-B84AB88CF6C4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11612,7 +12272,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11632,20 +12292,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1174" name="Check Box 150" hidden="1">
@@ -11654,7 +12319,7 @@
                   <a14:compatExt spid="_x0000_s1174"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F36283FA-0AAA-450C-BBCF-0902499F283E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11693,7 +12358,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11713,20 +12378,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>65</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1175" name="Check Box 151" hidden="1">
@@ -11735,7 +12405,7 @@
                   <a14:compatExt spid="_x0000_s1175"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6B1FE5-1A6C-4B45-9100-135AB3F52444}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11774,7 +12444,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11794,20 +12464,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1176" name="Check Box 152" hidden="1">
@@ -11816,7 +12491,7 @@
                   <a14:compatExt spid="_x0000_s1176"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8450C0ED-F6D4-49C6-8429-7178CFD84AC6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11855,7 +12530,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11875,20 +12550,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1177" name="Check Box 153" hidden="1">
@@ -11897,7 +12577,7 @@
                   <a14:compatExt spid="_x0000_s1177"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16BB488A-73E1-43BE-9E47-13930CCD5C00}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11936,7 +12616,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11956,20 +12636,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>39587</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>145523</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="402590" cy="258523"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1178" name="Check Box 154" hidden="1">
@@ -11978,7 +12663,7 @@
                   <a14:compatExt spid="_x0000_s1178"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C3359C-375A-4527-B879-5E02D97086BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12017,7 +12702,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -12037,27 +12722,11 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="A"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12360,8 +13029,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12479,7 +13148,7 @@
         <v>4444</v>
       </c>
       <c r="E5" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>1.4670000000000001</v>
@@ -12513,7 +13182,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
@@ -12525,7 +13194,7 @@
         <v>999.4</v>
       </c>
       <c r="E7" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>-0.78</v>
@@ -12556,7 +13225,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
@@ -12568,7 +13237,7 @@
         <v>1035</v>
       </c>
       <c r="E9" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
         <v>0.75</v>
@@ -12576,7 +13245,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
@@ -12645,16 +13314,22 @@
         <v>1043</v>
       </c>
       <c r="E13" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1024.1400000000001</v>
+      </c>
       <c r="E14" s="12" t="b">
         <v>0</v>
       </c>
@@ -12664,22 +13339,34 @@
       <c r="A15" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1023.4</v>
+      </c>
       <c r="E15" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1001.54</v>
+      </c>
       <c r="E16" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
